--- a/data/mag/airdna.xlsx
+++ b/data/mag/airdna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/phx/data/mag/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/phx/data/mag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C1012DF-0400-B446-8BC7-B2D79032F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8131143C-9FD3-794A-9C2E-3585AB08AE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14260"/>
+    <workbookView xWindow="1360" yWindow="1900" windowWidth="25440" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airdna" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,6 +752,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -791,7 +794,7 @@
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1108,16 +1111,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="101" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>400100</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>400101</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>400102</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>400103</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400104</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>400105</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>400106</v>
       </c>
@@ -1366,7 +1369,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>400107</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>400108</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>400109</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>400110</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>400111</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>400112</v>
       </c>
@@ -1548,15 +1551,22 @@
         <v>12218</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR($B14/H14,"")</f>
         <v>0.12743493206744147</v>
       </c>
       <c r="J14" s="4">
         <f>B14/(H14/1000)</f>
         <v>127.43493206744148</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="5">
+        <v>66390</v>
+      </c>
+      <c r="M14" s="3">
+        <f>IFERROR($B14/L14,"")</f>
+        <v>2.3452327157704473E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>400113</v>
       </c>
@@ -1590,8 +1600,15 @@
         <f t="shared" ref="J15:J27" si="1">B15/(H15/1000)</f>
         <v>177.71251686641796</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="5">
+        <v>47911</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" ref="M15:M31" si="2">IFERROR($B15/L15,"")</f>
+        <v>4.67324831458329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>400114</v>
       </c>
@@ -1625,8 +1642,15 @@
         <f t="shared" si="1"/>
         <v>31.49286331081424</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="5">
+        <v>50519</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.227261030503375E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>400115</v>
       </c>
@@ -1660,8 +1684,15 @@
         <f t="shared" si="1"/>
         <v>16.121080654703213</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="5">
+        <v>46845</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9804674991994879E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>400116</v>
       </c>
@@ -1695,8 +1726,15 @@
         <f t="shared" si="1"/>
         <v>27.842465753424658</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" s="5">
+        <v>55383</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4679594821515627E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>400117</v>
       </c>
@@ -1730,8 +1768,15 @@
         <f t="shared" si="1"/>
         <v>68.287330125770239</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="5">
+        <v>53935</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9999072958190414E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>400118</v>
       </c>
@@ -1765,8 +1810,15 @@
         <f t="shared" si="1"/>
         <v>53.620168461831952</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" s="5">
+        <v>56127</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2551178577155379E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>400119</v>
       </c>
@@ -1800,8 +1852,15 @@
         <f t="shared" si="1"/>
         <v>32.748143146522615</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" s="5">
+        <v>37483</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0351359282874903E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>400120</v>
       </c>
@@ -1835,8 +1894,15 @@
         <f t="shared" si="1"/>
         <v>38.489411385779853</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" s="5">
+        <v>45432</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0521218524388096E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>400121</v>
       </c>
@@ -1870,8 +1936,15 @@
         <f t="shared" si="1"/>
         <v>13.587690092684245</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" s="5">
+        <v>45196</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3410036286397027E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>400122</v>
       </c>
@@ -1905,8 +1978,15 @@
         <f t="shared" si="1"/>
         <v>2.233233303091632</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24" s="5">
+        <v>32071</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="2"/>
+        <v>9.9778616195316644E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>400123</v>
       </c>
@@ -1940,8 +2020,15 @@
         <f t="shared" si="1"/>
         <v>6.997324552377032</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25" s="5">
+        <v>36454</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7980468535688812E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>400124</v>
       </c>
@@ -1971,8 +2058,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>400125</v>
       </c>
@@ -2006,8 +2097,15 @@
         <f t="shared" si="1"/>
         <v>11.71321126934221</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L27" s="5">
+        <v>42930</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="2"/>
+        <v>4.425809457255998E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>400126</v>
       </c>
@@ -2037,8 +2135,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>400127</v>
       </c>
@@ -2068,8 +2170,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>400128</v>
       </c>
@@ -2100,11 +2206,18 @@
         <v>2.9440468445022773E-2</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" ref="J30:J31" si="2">B30/(H30/1000)</f>
+        <f t="shared" ref="J30:J31" si="3">B30/(H30/1000)</f>
         <v>29.440468445022773</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30" s="5">
+        <v>44413</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1507666674171982E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>400129</v>
       </c>
@@ -2135,11 +2248,18 @@
         <v>5.0444468244618186E-2</v>
       </c>
       <c r="J31" s="4">
+        <f t="shared" si="3"/>
+        <v>50.444468244618186</v>
+      </c>
+      <c r="L31" s="5">
+        <v>55939</v>
+      </c>
+      <c r="M31" s="3">
         <f t="shared" si="2"/>
-        <v>50.444468244618186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.4198859471924774E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>400130</v>
       </c>
@@ -2448,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
